--- a/puppeteer/코오롱스포츠_list.xlsx
+++ b/puppeteer/코오롱스포츠_list.xlsx
@@ -439,7 +439,7 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F2" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5264660/52646604353.20250124092107.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5264660/52646604353.20250124092107.jpg?type=f640</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F3" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5264738/52647380965.20250124121139.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5264738/52647380965.20250124121139.jpg?type=f640</v>
       </c>
     </row>
     <row r="4">
@@ -479,7 +479,7 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F4" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5134155/51341559618.20241111121842.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5134155/51341559618.20241111121842.jpg?type=f640</v>
       </c>
     </row>
     <row r="5">
@@ -499,47 +499,47 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F5" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3319423/33194237345.20220629165243.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3319423/33194237345.20220629165243.jpg?type=f640</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 패밀리 15 침낭 KEXDX22150DGR</v>
-      </c>
-      <c r="B6">
-        <v>2300</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 익스페디션 라이트 스토브 KEXEX24300TIT</v>
+      </c>
+      <c r="B6" t="str">
+        <v/>
       </c>
       <c r="C6" t="str">
-        <v>big4</v>
+        <v>cooking</v>
       </c>
       <c r="D6" t="str">
-        <v>sleeping_bag</v>
+        <v>cooking</v>
       </c>
       <c r="E6" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F6" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4314919/43149190620.20231011155735.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4989981/49899817091.20240821232445.jpg?type=f640</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 에어로 라이트 4 KEXBX24921 4인용</v>
+        <v>코오롱인더스트리 코오롱스포츠 오두막 2900 침낭</v>
       </c>
       <c r="B7">
-        <v>2550</v>
+        <v>2900</v>
       </c>
       <c r="C7" t="str">
         <v>big4</v>
       </c>
       <c r="D7" t="str">
-        <v>tent</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E7" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F7" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5134152/51341525621.20241111122850.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5087784/50877846618.20241016155609.jpg?type=f640</v>
       </c>
     </row>
     <row r="8">
@@ -559,7 +559,7 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F8" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4959696/49596968222.20240803230439.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4959696/49596968222.20240803230439.jpg?type=f640</v>
       </c>
     </row>
     <row r="9">
@@ -579,187 +579,187 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F9" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4177859/41778593618.20230809171421.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4177859/41778593618.20230809171421.jpg?type=f640</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 익스페디션 라이트 스토브 KEXEX24300TIT</v>
-      </c>
-      <c r="B10" t="str">
-        <v/>
+        <v>코오롱인더스트리 코오롱스포츠 패밀리 15 침낭 KEXDX22150DGR</v>
+      </c>
+      <c r="B10">
+        <v>2300</v>
       </c>
       <c r="C10" t="str">
-        <v>cooking</v>
+        <v>big4</v>
       </c>
       <c r="D10" t="str">
-        <v>cooking</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E10" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F10" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4989981/49899817091.20240821232445.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4314919/43149190620.20231011155735.jpg?type=f640</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 오두막 2900 침낭</v>
-      </c>
-      <c r="B11">
-        <v>2900</v>
+        <v>코오롱인더스트리 코오롱스포츠 에어로라이트 4 KEXBX23920 3인용</v>
+      </c>
+      <c r="B11" t="str">
+        <v/>
       </c>
       <c r="C11" t="str">
         <v>big4</v>
       </c>
       <c r="D11" t="str">
-        <v>sleeping_bag</v>
+        <v>tent</v>
       </c>
       <c r="E11" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F11" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5087784/50877846618.20241016155609.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4177614/41776144629.20230809173451.jpg?type=f640</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 에어로라이트 쉘터 KEXBX23950 2-3인용</v>
-      </c>
-      <c r="B12">
-        <v>4460</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 티타늄 주전자 KEXEX24130TIT</v>
+      </c>
+      <c r="B12" t="str">
+        <v/>
       </c>
       <c r="C12" t="str">
-        <v>big4</v>
+        <v>cooking</v>
       </c>
       <c r="D12" t="str">
-        <v>tent</v>
+        <v>cooking</v>
       </c>
       <c r="E12" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F12" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4177760/41777609618.20230809163410.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4958127/49581270892.20240802234557.jpg?type=f640</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 패밀리 10 침낭 KEXDX22100GRY</v>
-      </c>
-      <c r="B13">
-        <v>1750</v>
+        <v>코오롱인더스트리 코오롱스포츠 TITANIUM COOKER 900 KEXEX22840TIT</v>
+      </c>
+      <c r="B13" t="str">
+        <v/>
       </c>
       <c r="C13" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D13" t="str">
-        <v>sleeping_bag</v>
+        <v>etc</v>
       </c>
       <c r="E13" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F13" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4314930/43149305620.20231011160423.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3336652/33366521544.20220708172843.jpg?type=f640</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 에어로라이트 4 KEXBX23920 3인용</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 남녀공용 오터박스 엘레베이션 400 머그 KEXEX23850STE</v>
       </c>
       <c r="B14" t="str">
         <v/>
       </c>
       <c r="C14" t="str">
-        <v>big4</v>
+        <v>cooking</v>
       </c>
       <c r="D14" t="str">
-        <v>tent</v>
+        <v>cooking</v>
       </c>
       <c r="E14" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F14" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4177614/41776144629.20230809173451.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4966202/49662024097.20240807151043.jpg?type=f640</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 티타늄 쿠커 1250 KEXEX24850TIT</v>
-      </c>
-      <c r="B15" t="str">
-        <v/>
+        <v>코오롱인더스트리 코오롱스포츠 패밀리 10 침낭 KEXDX22100GRY</v>
+      </c>
+      <c r="B15">
+        <v>1750</v>
       </c>
       <c r="C15" t="str">
-        <v>cooking</v>
+        <v>big4</v>
       </c>
       <c r="D15" t="str">
-        <v>cooking</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E15" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F15" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4962720/49627202645.20240806005033.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4314930/43149305620.20231011160423.jpg?type=f640</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 티타늄 주전자 KEXEX24130TIT</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 에어로라이트 2 그라운드 시트 KEXCX23901OTX</v>
       </c>
       <c r="B16" t="str">
         <v/>
       </c>
       <c r="C16" t="str">
-        <v>cooking</v>
+        <v>etc</v>
       </c>
       <c r="D16" t="str">
-        <v>cooking</v>
+        <v>etc</v>
       </c>
       <c r="E16" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F16" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4958127/49581270892.20240802234557.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3969319/39693196443.20230429123246.jpg?type=f640</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 초경량 헤드랜턴 캡온 120H KEXEX23990PIN</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 티타늄 수저세트 KEXEX24811TIT</v>
       </c>
       <c r="B17" t="str">
         <v/>
       </c>
       <c r="C17" t="str">
-        <v>etc</v>
+        <v>cooking</v>
       </c>
       <c r="D17" t="str">
-        <v>etc</v>
+        <v>cooking</v>
       </c>
       <c r="E17" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F17" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4115247/41152473056.20230712205510.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4960909/49609091363.20240804184551.jpg?type=f640</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 TITANIUM COOKER 900 KEXEX22840TIT</v>
-      </c>
-      <c r="B18" t="str">
-        <v/>
+        <v>코오롱인더스트리 코오롱스포츠 에어로 라이트 4 KEXBX24921 4인용</v>
+      </c>
+      <c r="B18">
+        <v>2550</v>
       </c>
       <c r="C18" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D18" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E18" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F18" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3336652/33366521544.20220708172843.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5134152/51341525621.20241111122850.jpg?type=f640</v>
       </c>
     </row>
     <row r="19">
@@ -779,12 +779,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F19" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3353073/33530734887.20220716124457.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3353073/33530734887.20220716124457.jpg?type=f640</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 슈퍼 팰리스 TPU SUPER PALACE TPU KEXCX22704OTX</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 초경량 헤드랜턴 캡온 120H KEXEX23990PIN</v>
       </c>
       <c r="B20" t="str">
         <v/>
@@ -799,52 +799,52 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F20" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3522851/35228516403.20221014134359.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4115247/41152473056.20230712205510.jpg?type=f640</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 티타늄 수저세트 KEXEX24811TIT</v>
-      </c>
-      <c r="B21" t="str">
-        <v/>
+        <v>코오롱인더스트리 코오롱스포츠 에어로라이트 쉘터 KEXBX23950 2-3인용</v>
+      </c>
+      <c r="B21">
+        <v>4460</v>
       </c>
       <c r="C21" t="str">
-        <v>cooking</v>
+        <v>big4</v>
       </c>
       <c r="D21" t="str">
-        <v>cooking</v>
+        <v>tent</v>
       </c>
       <c r="E21" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F21" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4960909/49609091363.20240804184551.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4177760/41777609618.20230809163410.jpg?type=f640</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 티타늄 패밀리 머그 세트 KEXEX23170TIT</v>
+        <v>코오롱인더스트리 코오롱스포츠 HIGHEND SP INNER G S KEXCX22612OTX</v>
       </c>
       <c r="B22" t="str">
         <v/>
       </c>
       <c r="C22" t="str">
-        <v>cooking</v>
+        <v>etc</v>
       </c>
       <c r="D22" t="str">
-        <v>cooking</v>
+        <v>etc</v>
       </c>
       <c r="E22" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F22" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4133744/41337441973.20230721122419.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3570780/35707807875.20221108112616.jpg?type=f640</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 티타늄 패밀리 쿡웨어 세트 KEXEX23180TIT</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 스테인리스 시에라 300 KEXEX22890OTX</v>
       </c>
       <c r="B23" t="str">
         <v/>
@@ -859,12 +859,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F23" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2792921/27929213255.20210709193626.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3645816/36458167829.20221212070504.jpg?type=f640</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 에어로라이트 3 그라운드 시트 KEXCX24911OTX</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 22년형 오두막 슈퍼팰리스 이너 매트 KEXCX22503OTX</v>
       </c>
       <c r="B24" t="str">
         <v/>
@@ -879,12 +879,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F24" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4902216/49022167576.20240709225656.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4858037/48580370428.20240620185818.jpg?type=f640</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 에어로라이트 2 그라운드 시트 KEXCX23901OTX</v>
+        <v>코오롱인더스트리 코오롱스포츠 HIGHEND ST KEXBX22620KHA</v>
       </c>
       <c r="B25" t="str">
         <v/>
@@ -899,12 +899,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F25" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3969319/39693196443.20230429123246.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3625770/36257701638.20221203031025.jpg?type=f640</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 에어로라이트 4 그라운드 시트 KEXCX24921OTX</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 에어로라이트 3 그라운드 시트 KEXCX24911OTX</v>
       </c>
       <c r="B26" t="str">
         <v/>
@@ -919,12 +919,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F26" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4971873/49718736330.20240811005420.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4902216/49022167576.20240709225656.jpg?type=f640</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 하이엔드 슈퍼팰리스 TPU KEXCX23614OTX</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 에어로라이트 4 그라운드 시트 KEXCX24921OTX</v>
       </c>
       <c r="B27" t="str">
         <v/>
@@ -939,12 +939,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F27" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4410720/44107201723.20231118174950.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4971873/49718736330.20240811005420.jpg?type=f640</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 티타늄 싱글컵 450 KEXEX23110TIT</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 티타늄 쿠커 1250 KEXEX24850TIT</v>
       </c>
       <c r="B28" t="str">
         <v/>
@@ -959,32 +959,32 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F28" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4153183/41531836784.20230731205628.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4962720/49627202645.20240806005033.jpg?type=f640</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 22년형 오두막 슈퍼팰리스 이너 매트 KEXCX22503OTX</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 남녀공용 오터박스 엘레베이션 400 머그 KEXEX23850CRE</v>
       </c>
       <c r="B29" t="str">
         <v/>
       </c>
       <c r="C29" t="str">
-        <v>etc</v>
+        <v>cooking</v>
       </c>
       <c r="D29" t="str">
-        <v>etc</v>
+        <v>cooking</v>
       </c>
       <c r="E29" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F29" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4858037/48580370428.20240620185818.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3970732/39707323057.20230430142011.jpg?type=f640</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 스테인리스 시에라 300 KEXEX22890OTX</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 티타늄 패밀리 머그 세트 KEXEX23170TIT</v>
       </c>
       <c r="B30" t="str">
         <v/>
@@ -999,12 +999,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F30" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3645816/36458167829.20221212070504.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4133744/41337441973.20230721122419.jpg?type=f640</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 패밀리텐트 슈퍼 팰리스 4~5인용 KEXBX22700BEI</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 슈퍼 팰리스 TPU SUPER PALACE TPU KEXCX22704OTX</v>
       </c>
       <c r="B31" t="str">
         <v/>
@@ -1019,12 +1019,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F31" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3513598/35135988636.20221009090157.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3522851/35228516403.20221014134359.jpg?type=f640</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT TITANIUM SIERRA 450 KEXEX23830TIT</v>
+        <v>코오롱인더스트리 코오롱스포츠 HIGHEND TARP KEXBX22630KHA</v>
       </c>
       <c r="B32" t="str">
         <v/>
@@ -1039,12 +1039,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F32" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4511439/45114399193.20240107165626.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3625972/36259725817.20221203045833.jpg?type=f640</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 슈퍼 팰리스 매트 KEXCX22703OTX</v>
+        <v>코오롱인더스트리 코오롱스포츠 HIGHEND SP ROOF KEXCX22611KHA</v>
       </c>
       <c r="B33" t="str">
         <v/>
@@ -1059,32 +1059,32 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F33" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3523042/35230426926.20221014155318.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3567534/35675343272.20221106173040.jpg?type=f640</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 하이엔드 쉘터 TPU KEXCX23624OTX</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 티타늄 패밀리 쿡웨어 세트 KEXEX23180TIT</v>
       </c>
       <c r="B34" t="str">
         <v/>
       </c>
       <c r="C34" t="str">
-        <v>etc</v>
+        <v>cooking</v>
       </c>
       <c r="D34" t="str">
-        <v>etc</v>
+        <v>cooking</v>
       </c>
       <c r="E34" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F34" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4526960/45269608196.20240115220552.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2792921/27929213255.20210709193626.jpg?type=f640</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT X HIDEOFF 1P 소형 테이블 KEXEX23530KHA</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 티타늄 스포크 스푼 포크 KEXEX23810TIT</v>
       </c>
       <c r="B35" t="str">
         <v/>
@@ -1099,32 +1099,32 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F35" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3907085/39070858196.20230331133514.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4537788/45377881657.20240121154550.jpg?type=f640</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 티타늄 스포크 스푼 포크 KEXEX23810TIT</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 티타늄 싱글컵 450 KEXEX23110TIT</v>
       </c>
       <c r="B36" t="str">
         <v/>
       </c>
       <c r="C36" t="str">
-        <v>etc</v>
+        <v>cooking</v>
       </c>
       <c r="D36" t="str">
-        <v>etc</v>
+        <v>cooking</v>
       </c>
       <c r="E36" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F36" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4537788/45377881657.20240121154550.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4153183/41531836784.20230731205628.jpg?type=f640</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 월넛 우드 쉘프 920 더블 KEXEX23520OTX</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT TITANIUM SIERRA 450 KEXEX23830TIT</v>
       </c>
       <c r="B37" t="str">
         <v/>
@@ -1139,12 +1139,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F37" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3853873/38538736509.20230310080721.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4511439/45114399193.20240107165626.jpg?type=f640</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT KS x TCOT 엔 헹어 KEXEX23710BLK</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 하이엔드 쉘터 TPU KEXCX23624OTX</v>
       </c>
       <c r="B38" t="str">
         <v/>
@@ -1159,12 +1159,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F38" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4320836/43208361542.20231013114125.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4526960/45269608196.20240115220552.jpg?type=f640</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 하이엔드 슈퍼팰리스 이너 매트 KEXCX23613OTX</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 슈퍼 팰리스 매트 KEXCX22703OTX</v>
       </c>
       <c r="B39" t="str">
         <v/>
@@ -1179,12 +1179,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F39" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4410869/44108694252.20231118202141.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3523042/35230426926.20221014155318.jpg?type=f640</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 슈퍼 팰리스 그라운드시트 KEXCX22702OTX</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 하이엔드 슈퍼팰리스 TPU KEXCX23614OTX</v>
       </c>
       <c r="B40" t="str">
         <v/>
@@ -1199,12 +1199,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F40" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3522916/35229167201.20221014143003.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4410720/44107201723.20231118174950.jpg?type=f640</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 슈퍼 팰리스 루프 KEXCX22701BEI</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 월넛 우드 쉘프 920 더블 KEXEX23520OTX</v>
       </c>
       <c r="B41" t="str">
         <v/>
@@ -1219,12 +1219,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F41" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3524496/35244965267.20221015113414.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3853873/38538736509.20230310080721.jpg?type=f640</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 HIGHEND SP ROOF KEXCX22611KHA</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT KS x TCOT 엔 헹어 KEXEX23710BLK</v>
       </c>
       <c r="B42" t="str">
         <v/>
@@ -1239,12 +1239,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F42" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3567534/35675343272.20221106173040.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4320836/43208361542.20231013114125.jpg?type=f640</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 HIGHEND TARP KEXBX22630KHA</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 슈퍼 팰리스 그라운드시트 KEXCX22702OTX</v>
       </c>
       <c r="B43" t="str">
         <v/>
@@ -1259,12 +1259,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F43" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3625972/36259725817.20221203045833.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3522916/35229167201.20221014143003.jpg?type=f640</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 HIGHEND SP INNER G S KEXCX22612OTX</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 하이엔드 슈퍼팰리스 이너 매트 KEXCX23613OTX</v>
       </c>
       <c r="B44" t="str">
         <v/>
@@ -1279,32 +1279,32 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F44" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3570780/35707807875.20221108112616.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4410869/44108694252.20231118202141.jpg?type=f640</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 티타늄 쿡웨어 세트 1 2인용 KEXEX24181TIT</v>
+        <v>코오롱인더스트리 코오롱스포츠 슈퍼 팰리스 루프 KEXCX22701BEI</v>
       </c>
       <c r="B45" t="str">
         <v/>
       </c>
       <c r="C45" t="str">
-        <v>cooking</v>
+        <v>etc</v>
       </c>
       <c r="D45" t="str">
-        <v>cooking</v>
+        <v>etc</v>
       </c>
       <c r="E45" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F45" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4959675/49596755347.20240803215506.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3524496/35244965267.20221015113414.jpg?type=f640</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT TITANIUM A STOVE SET KEXEX22880TIT</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 티타늄 쿡웨어 세트 1 2인용 KEXEX24181TIT</v>
       </c>
       <c r="B46" t="str">
         <v/>
@@ -1319,12 +1319,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F46" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3334135/33341357628.20220707201637.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4959675/49596755347.20240803215506.jpg?type=f640</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 HIGHEND ST KEXBX22620KHA</v>
+        <v>코오롱인더스트리 코오롱스포츠 패밀리텐트 슈퍼 팰리스 4~5인용 KEXBX22700BEI</v>
       </c>
       <c r="B47" t="str">
         <v/>
@@ -1339,72 +1339,72 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F47" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3625770/36257701638.20221203031025.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3513598/35135988636.20221009090157.jpg?type=f640</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 남녀공용 오터박스 엘레베이션 400 머그 KEXEX23850STE</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT X HIDEOFF 1P 소형 테이블 KEXEX23530KHA</v>
       </c>
       <c r="B48" t="str">
         <v/>
       </c>
       <c r="C48" t="str">
-        <v>cooking</v>
+        <v>etc</v>
       </c>
       <c r="D48" t="str">
-        <v>cooking</v>
+        <v>etc</v>
       </c>
       <c r="E48" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F48" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4966202/49662024097.20240807151043.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3907085/39070858196.20230331133514.jpg?type=f640</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT SWEDEN ORIGINAL TITANIUM SPORK N STRAW KIT KEXEX21910TIT</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 22년형 오두막 슈퍼 팰리스 TPU KEXCX22504OTX</v>
       </c>
       <c r="B49" t="str">
         <v/>
       </c>
       <c r="C49" t="str">
-        <v>cooking</v>
+        <v>etc</v>
       </c>
       <c r="D49" t="str">
-        <v>cooking</v>
+        <v>etc</v>
       </c>
       <c r="E49" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F49" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2793101/27931011809.20210710010815.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4857346/48573469882.20240620122748.jpg?type=f640</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 22년형 오두막 슈퍼 팰리스 TPU KEXCX22504OTX</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT TITANIUM A STOVE SET KEXEX22880TIT</v>
       </c>
       <c r="B50" t="str">
         <v/>
       </c>
       <c r="C50" t="str">
-        <v>etc</v>
+        <v>cooking</v>
       </c>
       <c r="D50" t="str">
-        <v>etc</v>
+        <v>cooking</v>
       </c>
       <c r="E50" t="str">
         <v>코오롱스포츠</v>
       </c>
       <c r="F50" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4857346/48573469882.20240620122748.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3334135/33341357628.20220707201637.jpg?type=f640</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT 남녀공용 오터박스 엘레베이션 400 머그 KEXEX23850CRE</v>
+        <v>코오롱인더스트리 코오롱스포츠 KOLON SPORT SWEDEN ORIGINAL TITANIUM SPORK N STRAW KIT KEXEX21910TIT</v>
       </c>
       <c r="B51" t="str">
         <v/>
@@ -1419,7 +1419,7 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F51" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3970732/39707323057.20230430142011.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2793101/27931011809.20210710010815.jpg?type=f640</v>
       </c>
     </row>
     <row r="52">
@@ -1439,12 +1439,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F52" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3967368/39673681068.20230428170204.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3967368/39673681068.20230428170204.jpg?type=f640</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 SWEDEN ORIGINAL TITANIUM STRAW KIT KEXEX21930TIT</v>
+        <v>코오롱인더스트리 코오롱스포츠 HIGHEND ST ROOF KEXCX22621KHA</v>
       </c>
       <c r="B53" t="str">
         <v/>
@@ -1459,7 +1459,7 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F53" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2794482/27944826366.20210711013022.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3570544/35705448371.20221108103708.jpg?type=f640</v>
       </c>
     </row>
     <row r="54">
@@ -1479,12 +1479,12 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F54" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2797043/27970431550.20210712224828.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2797043/27970431550.20210712224828.jpg?type=f640</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>코오롱인더스트리 코오롱스포츠 HIGHEND ST ROOF KEXCX22621KHA</v>
+        <v>코오롱인더스트리 코오롱스포츠 SWEDEN ORIGINAL TITANIUM STRAW KIT KEXEX21930TIT</v>
       </c>
       <c r="B55" t="str">
         <v/>
@@ -1499,7 +1499,7 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F55" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3570544/35705448371.20221108103708.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2794482/27944826366.20210711013022.jpg?type=f640</v>
       </c>
     </row>
     <row r="56">
@@ -1519,7 +1519,7 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F56" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2800720/28007201925.20210715044021.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2800720/28007201925.20210715044021.jpg?type=f640</v>
       </c>
     </row>
     <row r="57">
@@ -1539,7 +1539,7 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F57" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3088143/30881439436.20220211003227.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3088143/30881439436.20220211003227.jpg?type=f640</v>
       </c>
     </row>
     <row r="58">
@@ -1559,7 +1559,7 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F58" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4121145/41211452611.20230715190012.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4121145/41211452611.20230715190012.jpg?type=f640</v>
       </c>
     </row>
     <row r="59">
@@ -1579,7 +1579,7 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F59" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5087792/50877920619.20241016160521.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5087792/50877920619.20241016160521.jpg?type=f640</v>
       </c>
     </row>
     <row r="60">
@@ -1599,7 +1599,7 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F60" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4314930/43149305619.20231011153844.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4314930/43149305619.20231011153844.jpg?type=f640</v>
       </c>
     </row>
     <row r="61">
@@ -1619,7 +1619,7 @@
         <v>코오롱스포츠</v>
       </c>
       <c r="F61" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3257797/32577973622.20220525124715.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3257797/32577973622.20220525124715.jpg?type=f640</v>
       </c>
     </row>
   </sheetData>
